--- a/test files/biblio-  Palace.xlsx
+++ b/test files/biblio-  Palace.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscoded\Credit_App\Credit_App\test files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94A335-22CA-430A-A601-9A317FFC97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="15480" windowHeight="10920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statment" sheetId="6" r:id="rId1"/>
@@ -15,12 +21,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">statment!$I$1:$I$20</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Internal Tax invoice No.</t>
   </si>
@@ -91,25 +108,18 @@
     <t>SGL-PA</t>
   </si>
   <si>
-    <t>120-128</t>
-  </si>
-  <si>
-    <t>108-114</t>
-  </si>
-  <si>
-    <t>96-120</t>
+    <t>DBL- PV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,8 +186,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +237,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -302,8 +331,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -345,8 +387,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,7 +404,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -418,52 +461,89 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="42">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="41" xr:uid="{3A442D5E-86E3-4D6D-9D81-140AEA2034E2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="2"/>
-    <cellStyle name="Normal 10 3" xfId="3"/>
-    <cellStyle name="Normal 10 4" xfId="4"/>
-    <cellStyle name="Normal 140" xfId="5"/>
-    <cellStyle name="Normal 148" xfId="6"/>
-    <cellStyle name="Normal 149" xfId="7"/>
-    <cellStyle name="Normal 151" xfId="8"/>
-    <cellStyle name="Normal 152" xfId="40"/>
-    <cellStyle name="Normal 153" xfId="9"/>
-    <cellStyle name="Normal 154" xfId="10"/>
-    <cellStyle name="Normal 157" xfId="38"/>
-    <cellStyle name="Normal 158" xfId="39"/>
-    <cellStyle name="Normal 159" xfId="11"/>
-    <cellStyle name="Normal 160" xfId="12"/>
-    <cellStyle name="Normal 162" xfId="13"/>
-    <cellStyle name="Normal 163" xfId="14"/>
-    <cellStyle name="Normal 165" xfId="15"/>
-    <cellStyle name="Normal 166" xfId="16"/>
-    <cellStyle name="Normal 19 2" xfId="17"/>
-    <cellStyle name="Normal 19 3" xfId="18"/>
-    <cellStyle name="Normal 19 4" xfId="19"/>
-    <cellStyle name="Normal 2 2" xfId="20"/>
-    <cellStyle name="Normal 2 3" xfId="21"/>
-    <cellStyle name="Normal 2 4" xfId="22"/>
-    <cellStyle name="Normal 20 2" xfId="23"/>
-    <cellStyle name="Normal 20 3" xfId="24"/>
-    <cellStyle name="Normal 20 4" xfId="25"/>
-    <cellStyle name="Normal 23 2" xfId="26"/>
-    <cellStyle name="Normal 23 3" xfId="27"/>
-    <cellStyle name="Normal 23 4" xfId="28"/>
-    <cellStyle name="Normal 37 2" xfId="29"/>
-    <cellStyle name="Normal 37 3" xfId="30"/>
-    <cellStyle name="Normal 37 4" xfId="31"/>
-    <cellStyle name="Normal 38 2" xfId="32"/>
-    <cellStyle name="Normal 38 3" xfId="33"/>
-    <cellStyle name="Normal 38 4" xfId="34"/>
-    <cellStyle name="Normal 9 2" xfId="35"/>
-    <cellStyle name="Normal 9 3" xfId="36"/>
-    <cellStyle name="Normal 9 4" xfId="37"/>
+    <cellStyle name="Normal 10 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 10 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 140" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 148" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 149" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 151" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 152" xfId="40" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 153" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 154" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 157" xfId="38" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 158" xfId="39" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 159" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 160" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 162" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 163" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 165" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 166" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 19 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 19 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 19 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 20 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 20 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 20 4" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 23 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 23 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 23 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 37 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 37 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 37 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 38 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 38 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 38 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 9 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 9 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 9 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +622,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,6 +674,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,14 +867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -769,7 +885,7 @@
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
@@ -813,50 +929,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="27" customFormat="1" ht="15" thickTop="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <v>116343464761</v>
-      </c>
-      <c r="D2" s="26">
-        <v>128701</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="15">
-        <v>45157</v>
-      </c>
-      <c r="G2" s="15">
-        <v>45163</v>
-      </c>
-      <c r="H2" s="15">
-        <v>45170</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="19">
+    <row r="2" spans="1:17" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30">
         <v>7</v>
       </c>
-      <c r="K2" s="20">
-        <v>120</v>
-      </c>
-      <c r="L2" s="21">
-        <v>840</v>
-      </c>
-      <c r="M2" s="22">
-        <v>736.84210526315792</v>
-      </c>
-      <c r="N2" s="21">
+      <c r="C2" s="31">
+        <v>7356731</v>
+      </c>
+      <c r="D2" s="32">
+        <v>129322</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33">
+        <v>45172</v>
+      </c>
+      <c r="G2" s="33">
+        <v>45180</v>
+      </c>
+      <c r="H2" s="33">
+        <v>45144</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="34">
+        <v>8</v>
+      </c>
+      <c r="K2" s="35">
+        <v>178</v>
+      </c>
+      <c r="L2" s="36">
+        <v>1424</v>
+      </c>
+      <c r="M2" s="36">
+        <v>1249.1228070175439</v>
+      </c>
+      <c r="N2" s="35">
         <v>30.85</v>
       </c>
-      <c r="O2" s="22">
-        <v>25914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="27" customFormat="1" ht="14.25">
+      <c r="O2" s="37">
+        <v>43930.400000000001</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="18">
         <v>2</v>
@@ -869,13 +987,13 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="15">
-        <v>45157</v>
+        <v>45119</v>
       </c>
       <c r="G3" s="15">
         <v>45163</v>
       </c>
       <c r="H3" s="15">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>17</v>
@@ -887,7 +1005,7 @@
         <v>120</v>
       </c>
       <c r="L3" s="21">
-        <v>840</v>
+        <v>1408</v>
       </c>
       <c r="M3" s="22">
         <v>736.84210526315792</v>
@@ -899,800 +1017,349 @@
         <v>25914</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="27" customFormat="1" ht="14.25">
+    <row r="4" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="17">
-        <v>116313465161</v>
-      </c>
-      <c r="D4" s="23">
-        <v>128704</v>
+        <v>116373466096</v>
+      </c>
+      <c r="D4" s="26">
+        <v>128700</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="15">
-        <v>45159</v>
-      </c>
-      <c r="G4" s="15">
-        <v>45161</v>
-      </c>
-      <c r="H4" s="15">
-        <v>45170</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="29">
+        <v>45119</v>
+      </c>
+      <c r="G4" s="29">
+        <v>45163</v>
+      </c>
+      <c r="H4" s="29">
+        <v>45174</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K4" s="20">
         <v>120</v>
       </c>
       <c r="L4" s="21">
-        <v>1080</v>
+        <v>1408</v>
       </c>
       <c r="M4" s="22">
-        <v>947.36842105263167</v>
+        <v>736.84210526315792</v>
       </c>
       <c r="N4" s="21">
         <v>30.85</v>
       </c>
       <c r="O4" s="22">
-        <v>33318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="27" customFormat="1" ht="14.25">
+        <v>25914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
-      <c r="B5" s="18">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17">
-        <v>116313467370</v>
-      </c>
-      <c r="D5" s="26">
-        <v>128723</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="15">
-        <v>45163</v>
-      </c>
-      <c r="G5" s="15">
-        <v>45164</v>
-      </c>
-      <c r="H5" s="15">
-        <v>45171</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="19">
-        <v>7</v>
-      </c>
-      <c r="K5" s="20">
-        <v>120</v>
-      </c>
-      <c r="L5" s="21">
-        <v>840</v>
-      </c>
-      <c r="M5" s="22">
-        <v>736.84210526315792</v>
-      </c>
-      <c r="N5" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O5" s="22">
-        <v>25914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="27" customFormat="1" ht="14.25">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
-      <c r="B6" s="18">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17">
-        <v>116313462917</v>
-      </c>
-      <c r="D6" s="23">
-        <v>128731</v>
-      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="15">
-        <v>45149</v>
-      </c>
-      <c r="G6" s="15">
-        <v>45165</v>
-      </c>
-      <c r="H6" s="15">
-        <v>45171</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="19">
-        <v>6</v>
-      </c>
-      <c r="K6" s="20">
-        <v>120</v>
-      </c>
-      <c r="L6" s="21">
-        <v>720</v>
-      </c>
-      <c r="M6" s="22">
-        <v>631.57894736842115</v>
-      </c>
-      <c r="N6" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O6" s="22">
-        <v>22212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="27" customFormat="1" ht="14.25">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
-      <c r="B7" s="18">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17">
-        <v>116313465536</v>
-      </c>
-      <c r="D7" s="23">
-        <v>128829</v>
-      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="15">
-        <v>45161</v>
-      </c>
-      <c r="G7" s="15">
-        <v>45165</v>
-      </c>
-      <c r="H7" s="15">
-        <v>45172</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="19">
-        <v>7</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="21">
-        <v>856</v>
-      </c>
-      <c r="M7" s="22">
-        <v>750.87719298245622</v>
-      </c>
-      <c r="N7" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O7" s="22">
-        <v>26407.600000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="27" customFormat="1" ht="14.25">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
-      <c r="B8" s="18">
-        <v>8</v>
-      </c>
-      <c r="C8" s="17">
-        <v>116383454155</v>
-      </c>
-      <c r="D8" s="23">
-        <v>128887</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="15">
-        <v>45130</v>
-      </c>
-      <c r="G8" s="15">
-        <v>45167</v>
-      </c>
-      <c r="H8" s="15">
-        <v>45173</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="19">
-        <v>6</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="21">
-        <v>744</v>
-      </c>
-      <c r="M8" s="22">
-        <v>652.63157894736844</v>
-      </c>
-      <c r="N8" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O8" s="22">
-        <v>22952.400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="27" customFormat="1" ht="14.25">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
-      <c r="B9" s="18">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17">
-        <v>116303466372</v>
-      </c>
-      <c r="D9" s="23">
-        <v>128893</v>
-      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="15">
-        <v>45162</v>
-      </c>
-      <c r="G9" s="15">
-        <v>45166</v>
-      </c>
-      <c r="H9" s="15">
-        <v>45173</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="19">
-        <v>7</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="21">
-        <v>864</v>
-      </c>
-      <c r="M9" s="22">
-        <v>757.89473684210532</v>
-      </c>
-      <c r="N9" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O9" s="22">
-        <v>26654.400000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B10" s="18">
-        <v>10</v>
-      </c>
-      <c r="C10" s="17">
-        <v>116333464654</v>
-      </c>
-      <c r="D10" s="23">
-        <v>128894</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="15">
-        <v>45152</v>
-      </c>
-      <c r="G10" s="15">
-        <v>45166</v>
-      </c>
-      <c r="H10" s="15">
-        <v>45173</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="19">
-        <v>7</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="21">
-        <v>864</v>
-      </c>
-      <c r="M10" s="22">
-        <v>757.89473684210532</v>
-      </c>
-      <c r="N10" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O10" s="22">
-        <v>26654.400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B11" s="18">
-        <f>+B10+1</f>
-        <v>11</v>
-      </c>
-      <c r="C11" s="17">
-        <v>116353465936</v>
-      </c>
-      <c r="D11" s="23">
-        <v>128936</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="15">
-        <v>45163</v>
-      </c>
-      <c r="G11" s="15">
-        <v>45168</v>
-      </c>
-      <c r="H11" s="15">
-        <v>45174</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="19">
-        <v>6</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="21">
-        <v>600</v>
-      </c>
-      <c r="M11" s="22">
-        <v>526.31578947368428</v>
-      </c>
-      <c r="N11" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O11" s="22">
-        <v>18510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B12" s="18">
-        <f t="shared" ref="B12:B21" si="0">+B11+1</f>
-        <v>12</v>
-      </c>
-      <c r="C12" s="17">
-        <v>116373463934</v>
-      </c>
-      <c r="D12" s="23">
-        <v>128937</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="15">
-        <v>45153</v>
-      </c>
-      <c r="G12" s="15">
-        <v>45167</v>
-      </c>
-      <c r="H12" s="15">
-        <v>45174</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="19">
-        <v>7</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="21">
-        <v>872</v>
-      </c>
-      <c r="M12" s="22">
-        <v>764.91228070175441</v>
-      </c>
-      <c r="N12" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O12" s="22">
-        <v>26901.200000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B13" s="18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C13" s="17">
-        <v>116393456082</v>
-      </c>
-      <c r="D13" s="23">
-        <v>128938</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="15">
-        <v>45135</v>
-      </c>
-      <c r="G13" s="15">
-        <v>45166</v>
-      </c>
-      <c r="H13" s="15">
-        <v>45174</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="19">
-        <v>8</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="21">
-        <v>992</v>
-      </c>
-      <c r="M13" s="22">
-        <v>870.17543859649129</v>
-      </c>
-      <c r="N13" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O13" s="22">
-        <v>30603.200000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B14" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C14" s="17">
-        <v>116303466174</v>
-      </c>
-      <c r="D14" s="23">
-        <v>128939</v>
-      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="15">
-        <v>45163</v>
-      </c>
-      <c r="G14" s="15">
-        <v>45168</v>
-      </c>
-      <c r="H14" s="15">
-        <v>45174</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="19">
-        <v>6</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="21">
-        <v>752</v>
-      </c>
-      <c r="M14" s="22">
-        <v>659.64912280701765</v>
-      </c>
-      <c r="N14" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O14" s="22">
-        <v>23199.200000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B15" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C15" s="17">
-        <v>116373468076</v>
-      </c>
-      <c r="D15" s="23">
-        <v>128940</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="15">
-        <v>45167</v>
-      </c>
-      <c r="G15" s="15">
-        <v>45169</v>
-      </c>
-      <c r="H15" s="15">
-        <v>45174</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="19">
-        <v>5</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="21">
-        <v>558</v>
-      </c>
-      <c r="M15" s="22">
-        <v>489.47368421052636</v>
-      </c>
-      <c r="N15" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O15" s="22">
-        <v>17214.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="27" customFormat="1" ht="14.25">
-      <c r="B16" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C16" s="17">
-        <v>116313462054</v>
-      </c>
-      <c r="D16" s="23">
-        <v>128967</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="15">
-        <v>45146</v>
-      </c>
-      <c r="G16" s="15">
-        <v>45165</v>
-      </c>
-      <c r="H16" s="15">
-        <v>45175</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="19">
-        <v>10</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="21">
-        <v>1240</v>
-      </c>
-      <c r="M16" s="22">
-        <v>1087.719298245614</v>
-      </c>
-      <c r="N16" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O16" s="22">
-        <v>38254</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="27" customFormat="1" ht="14.25">
-      <c r="B17" s="18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C17" s="17">
-        <v>116353460474</v>
-      </c>
-      <c r="D17" s="23">
-        <v>128969</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" spans="2:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="15">
-        <v>45142</v>
-      </c>
-      <c r="G17" s="15">
-        <v>45165</v>
-      </c>
-      <c r="H17" s="15">
-        <v>45175</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="19">
-        <v>10</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="21">
-        <v>1240</v>
-      </c>
-      <c r="M17" s="22">
-        <v>1087.719298245614</v>
-      </c>
-      <c r="N17" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O17" s="22">
-        <v>38254</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" s="27" customFormat="1" ht="14.25">
-      <c r="B18" s="18">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C18" s="17">
-        <v>116353466001</v>
-      </c>
-      <c r="D18" s="23">
-        <v>128970</v>
-      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="2:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="15">
-        <v>45156</v>
-      </c>
-      <c r="G18" s="15">
-        <v>45169</v>
-      </c>
-      <c r="H18" s="15">
-        <v>45175</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="19">
-        <v>6</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="21">
-        <v>760</v>
-      </c>
-      <c r="M18" s="22">
-        <v>666.66666666666674</v>
-      </c>
-      <c r="N18" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O18" s="22">
-        <v>23446</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" s="27" customFormat="1" ht="14.25">
-      <c r="B19" s="18">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C19" s="17">
-        <v>116343505747</v>
-      </c>
-      <c r="D19" s="23">
-        <v>129101</v>
-      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="2:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="15">
-        <v>45159</v>
-      </c>
-      <c r="G19" s="15">
-        <v>45170</v>
-      </c>
-      <c r="H19" s="15">
-        <v>45177</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="19">
-        <v>7</v>
-      </c>
-      <c r="K19" s="20">
-        <v>128</v>
-      </c>
-      <c r="L19" s="21">
-        <v>896</v>
-      </c>
-      <c r="M19" s="22">
-        <v>785.96491228070181</v>
-      </c>
-      <c r="N19" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O19" s="22">
-        <v>27641.600000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" s="27" customFormat="1" ht="14.25">
-      <c r="B20" s="18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C20" s="17">
-        <v>115393450168</v>
-      </c>
-      <c r="D20" s="23">
-        <v>129232</v>
-      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="2:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="15">
-        <v>45131</v>
-      </c>
-      <c r="G20" s="15">
-        <v>45165</v>
-      </c>
-      <c r="H20" s="15">
-        <v>45179</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="19">
-        <v>14</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="21">
-        <v>1752</v>
-      </c>
-      <c r="M20" s="22">
-        <v>1536.8421052631579</v>
-      </c>
-      <c r="N20" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O20" s="22">
-        <v>54049.200000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" s="27" customFormat="1" ht="14.25">
-      <c r="B21" s="18">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C21" s="17">
-        <v>116313456732</v>
-      </c>
-      <c r="D21" s="23">
-        <v>129233</v>
-      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="2:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="15">
-        <v>45137</v>
-      </c>
-      <c r="G21" s="15">
-        <v>45169</v>
-      </c>
-      <c r="H21" s="15">
-        <v>45179</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="19">
-        <v>10</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="21">
-        <v>1272</v>
-      </c>
-      <c r="M21" s="22">
-        <v>1115.7894736842106</v>
-      </c>
-      <c r="N21" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O21" s="22">
-        <v>39241.200000000004</v>
-      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I20"/>
+  <autoFilter ref="I1:I20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1390,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1">
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>45047</v>
       </c>
@@ -1754,7 +1421,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>45062</v>
       </c>
@@ -1785,7 +1452,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>45078</v>
       </c>
@@ -1816,7 +1483,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25">
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>45108</v>
       </c>
@@ -1847,7 +1514,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="14.25">
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>45139</v>
       </c>
@@ -1878,7 +1545,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="14.25">
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>45170</v>
       </c>
@@ -1909,7 +1576,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25">
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>45200</v>
       </c>
@@ -1946,20 +1613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1658,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1">
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>45119</v>
       </c>
@@ -2021,7 +1689,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>45139</v>
       </c>
@@ -2052,7 +1720,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>45170</v>
       </c>
@@ -2089,20 +1757,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +1800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>45139</v>
       </c>
@@ -2160,7 +1829,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -2171,7 +1840,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>

--- a/test files/biblio-  Palace.xlsx
+++ b/test files/biblio-  Palace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscoded\Credit_App\Credit_App\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94A335-22CA-430A-A601-9A317FFC97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C7033-A0F9-4B44-B7BD-153494E82C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Internal Tax invoice No.</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>SGL-PA</t>
-  </si>
-  <si>
-    <t>DBL- PV</t>
   </si>
 </sst>
 </file>
@@ -871,7 +868,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -929,50 +926,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30">
+    <row r="2" spans="1:17" s="27" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>116373466096</v>
+      </c>
+      <c r="D2" s="26">
+        <v>128700</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="15">
+        <v>45120</v>
+      </c>
+      <c r="G2" s="15">
+        <v>45163</v>
+      </c>
+      <c r="H2" s="15">
+        <v>45174</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19">
         <v>7</v>
       </c>
-      <c r="C2" s="31">
-        <v>7356731</v>
-      </c>
-      <c r="D2" s="32">
-        <v>129322</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33">
-        <v>45172</v>
-      </c>
-      <c r="G2" s="33">
-        <v>45180</v>
-      </c>
-      <c r="H2" s="33">
-        <v>45144</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="34">
-        <v>8</v>
-      </c>
-      <c r="K2" s="35">
-        <v>178</v>
-      </c>
-      <c r="L2" s="36">
-        <v>1424</v>
-      </c>
-      <c r="M2" s="36">
-        <v>1249.1228070175439</v>
-      </c>
-      <c r="N2" s="35">
+      <c r="K2" s="20">
+        <v>120</v>
+      </c>
+      <c r="L2" s="21">
+        <v>1408</v>
+      </c>
+      <c r="M2" s="22">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="N2" s="21">
         <v>30.85</v>
       </c>
-      <c r="O2" s="37">
-        <v>43930.400000000001</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="O2" s="22">
+        <v>25914</v>
+      </c>
     </row>
     <row r="3" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -986,16 +981,16 @@
         <v>128700</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="15">
-        <v>45119</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="F3" s="29">
+        <v>45150</v>
+      </c>
+      <c r="G3" s="29">
         <v>45163</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="29">
         <v>45174</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="19">
@@ -1005,7 +1000,7 @@
         <v>120</v>
       </c>
       <c r="L3" s="21">
-        <v>1408</v>
+        <v>1352</v>
       </c>
       <c r="M3" s="22">
         <v>736.84210526315792</v>
@@ -1017,65 +1012,24 @@
         <v>25914</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="18">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17">
-        <v>116373466096</v>
-      </c>
-      <c r="D4" s="26">
-        <v>128700</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="29">
-        <v>45119</v>
-      </c>
-      <c r="G4" s="29">
-        <v>45163</v>
-      </c>
-      <c r="H4" s="29">
-        <v>45174</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="19">
-        <v>7</v>
-      </c>
-      <c r="K4" s="20">
-        <v>120</v>
-      </c>
-      <c r="L4" s="21">
-        <v>1408</v>
-      </c>
-      <c r="M4" s="22">
-        <v>736.84210526315792</v>
-      </c>
-      <c r="N4" s="21">
-        <v>30.85</v>
-      </c>
-      <c r="O4" s="22">
-        <v>25914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
+    <row r="4" spans="1:17" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="6" spans="1:17" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
